--- a/i2o_SU_SanityBQTest/Testcases/testscenarios-dell.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios-dell.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>Execution status</t>
   </si>

--- a/i2o_SU_SanityBQTest/Testcases/testscenarios-dell.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios-dell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_BQ\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754B208-D4E8-4007-A46C-C09D97A5C8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD311D21-9784-44D6-8EDD-4A94D12C0A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="89">
   <si>
     <t>Execution status</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>f0_</t>
   </si>
   <si>
     <t>Columname</t>
@@ -188,34 +185,28 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>05/30/2020 15:13:19</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>2020-05-17</t>
   </si>
   <si>
-    <t>2854184.8399999994</t>
+    <t>2854185.0</t>
   </si>
   <si>
     <t>14580.0</t>
   </si>
   <si>
-    <t>88.78320987654322</t>
-  </si>
-  <si>
-    <t>2854184.8400000003</t>
-  </si>
-  <si>
-    <t>88.7832098765432</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>89.0</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>05/30/2020 00:12:14</t>
+    <t>05/30/2020 15:24:20</t>
   </si>
   <si>
     <t>B00N2L5CXO</t>
@@ -308,7 +299,7 @@
     <t>656.0</t>
   </si>
   <si>
-    <t>05/30/2020 00:12:42</t>
+    <t>05/30/2020 15:24:51</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,13 +1102,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,26 +1116,26 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1153,7 +1144,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -1179,7 +1170,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>9</v>
@@ -1233,10 +1224,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -1245,13 +1236,13 @@
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.313225746154785E-10</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1262,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
@@ -1280,7 +1271,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1291,10 +1282,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>52</v>
@@ -1303,13 +1294,13 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8421709430404007E-14</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I21"/>
     </sheetView>
   </sheetViews>
@@ -1365,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>9</v>
@@ -1388,25 +1379,25 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1419,19 +1410,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1444,24 +1435,24 @@
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1469,19 +1460,19 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1494,24 +1485,24 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -1519,24 +1510,24 @@
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -1544,24 +1535,24 @@
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1569,24 +1560,24 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1594,24 +1585,24 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1619,53 +1610,53 @@
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1673,24 +1664,24 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1698,24 +1689,24 @@
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1723,24 +1714,24 @@
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1748,24 +1739,24 @@
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1773,24 +1764,24 @@
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1798,24 +1789,24 @@
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1823,24 +1814,24 @@
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1848,24 +1839,24 @@
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -1873,19 +1864,19 @@
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
